--- a/wzrv/expdata/2010.xlsx
+++ b/wzrv/expdata/2010.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB70DD1-4149-A143-ACE6-595347554594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="27">
   <si>
     <t>cms</t>
   </si>
@@ -47,53 +57,82 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst1_u</t>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>W+</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>W-</t>
+  </si>
+  <si>
+    <t>CMS(sig)</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst0_c</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
   </si>
   <si>
     <t>syst2_c</t>
   </si>
   <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>col</t>
-  </si>
-  <si>
-    <t>W+</t>
-  </si>
-  <si>
-    <t>sig</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>W-</t>
-  </si>
-  <si>
-    <t>CMS(sig)</t>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst4_c</t>
+  </si>
+  <si>
+    <t>syst5_c</t>
+  </si>
+  <si>
+    <t>syst6_c</t>
+  </si>
+  <si>
+    <t>syst7_c</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,10 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,22 +442,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="1"/>
-    <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
     <col min="1014" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,25 +480,49 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -470,7 +536,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>743.7</v>
@@ -485,19 +551,43 @@
         <v>19.3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>5.5</v>
+      </c>
+      <c r="O2">
+        <v>0.4</v>
+      </c>
+      <c r="P2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>0.6</v>
+      </c>
+      <c r="S2">
+        <v>2.4</v>
+      </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="U2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -511,7 +601,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>749.5</v>
@@ -526,19 +616,43 @@
         <v>19.5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.9</v>
+      </c>
+      <c r="R3">
+        <v>0.6</v>
+      </c>
+      <c r="S3">
+        <v>2.4</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -552,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>751.9</v>
@@ -567,19 +681,43 @@
         <v>19.5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>6.3</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0.6</v>
+      </c>
+      <c r="S4">
+        <v>2.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -593,7 +731,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>755</v>
@@ -608,19 +746,43 @@
         <v>19.600000000000001</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>6.2</v>
+      </c>
+      <c r="O5">
+        <v>0.4</v>
+      </c>
+      <c r="P5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0.6</v>
+      </c>
+      <c r="S5">
+        <v>2.4</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -634,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>761.9</v>
@@ -649,19 +811,43 @@
         <v>19.8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>6.6</v>
+      </c>
+      <c r="O6">
+        <v>0.4</v>
+      </c>
+      <c r="P6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>1.9</v>
+      </c>
+      <c r="R6">
+        <v>0.6</v>
+      </c>
+      <c r="S6">
+        <v>2.4</v>
+      </c>
+      <c r="T6">
+        <v>0.7</v>
+      </c>
+      <c r="U6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -675,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>766</v>
@@ -690,19 +876,43 @@
         <v>19.899999999999999</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1.9</v>
+      </c>
+      <c r="R7">
+        <v>0.7</v>
+      </c>
+      <c r="S7">
+        <v>2.5</v>
+      </c>
+      <c r="T7">
+        <v>0.9</v>
+      </c>
+      <c r="U7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -716,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>774.4</v>
@@ -731,19 +941,43 @@
         <v>20.100000000000001</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>4.3</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>1.2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0.8</v>
+      </c>
+      <c r="S8">
+        <v>2.8</v>
+      </c>
+      <c r="T8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -757,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>774.6</v>
@@ -772,19 +1006,43 @@
         <v>20.100000000000001</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>4.3</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>1.3</v>
+      </c>
+      <c r="Q9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.9</v>
+      </c>
+      <c r="S9">
+        <v>2.9</v>
+      </c>
+      <c r="T9">
+        <v>1.3</v>
+      </c>
+      <c r="U9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -798,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>776.4</v>
@@ -813,19 +1071,43 @@
         <v>20.2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>5.3</v>
+      </c>
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>1.2</v>
+      </c>
+      <c r="Q10">
+        <v>2.1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2.9</v>
+      </c>
+      <c r="T10">
+        <v>1.6</v>
+      </c>
+      <c r="U10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -839,7 +1121,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>771.1</v>
@@ -854,19 +1136,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>6.9</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>1.2</v>
+      </c>
+      <c r="S11">
+        <v>2.4</v>
+      </c>
+      <c r="T11">
+        <v>1.8</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -880,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>748.3</v>
@@ -895,19 +1201,43 @@
         <v>19.5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>17.7</v>
+      </c>
+      <c r="O12">
+        <v>0.4</v>
+      </c>
+      <c r="P12">
+        <v>0.7</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1.3</v>
+      </c>
+      <c r="S12">
+        <v>1.9</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8000</v>
       </c>
@@ -921,7 +1251,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>569</v>
@@ -936,19 +1266,43 @@
         <v>14.8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>4.3</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>0.9</v>
+      </c>
+      <c r="Q13">
+        <v>1.8</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T13">
+        <v>0.6</v>
+      </c>
+      <c r="U13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8000</v>
       </c>
@@ -962,7 +1316,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1">
         <v>568.9</v>
@@ -977,19 +1331,43 @@
         <v>14.8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>5.5</v>
+      </c>
+      <c r="O14">
+        <v>0.3</v>
+      </c>
+      <c r="P14">
+        <v>0.9</v>
+      </c>
+      <c r="Q14">
+        <v>1.8</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T14">
+        <v>0.6</v>
+      </c>
+      <c r="U14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8000</v>
       </c>
@@ -1003,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
         <v>564.1</v>
@@ -1018,19 +1396,43 @@
         <v>14.7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>4.8</v>
+      </c>
+      <c r="O15">
+        <v>0.3</v>
+      </c>
+      <c r="P15">
+        <v>0.9</v>
+      </c>
+      <c r="Q15">
+        <v>1.9</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8000</v>
       </c>
@@ -1044,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>556.1</v>
@@ -1059,19 +1461,43 @@
         <v>14.5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>0.9</v>
+      </c>
+      <c r="Q16">
+        <v>1.8</v>
+      </c>
+      <c r="R16">
+        <v>0.6</v>
+      </c>
+      <c r="S16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8000</v>
       </c>
@@ -1085,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>549.6</v>
@@ -1100,19 +1526,43 @@
         <v>14.3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
+        <v>0.9</v>
+      </c>
+      <c r="Q17">
+        <v>1.8</v>
+      </c>
+      <c r="R17">
+        <v>0.6</v>
+      </c>
+      <c r="S17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T17">
+        <v>0.7</v>
+      </c>
+      <c r="U17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -1126,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
         <v>535.70000000000005</v>
@@ -1141,19 +1591,43 @@
         <v>13.9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>3.2</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
+      </c>
+      <c r="Q18">
+        <v>1.8</v>
+      </c>
+      <c r="R18">
+        <v>0.6</v>
+      </c>
+      <c r="S18">
+        <v>2.4</v>
+      </c>
+      <c r="T18">
+        <v>0.8</v>
+      </c>
+      <c r="U18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>8000</v>
       </c>
@@ -1167,7 +1641,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
         <v>521.4</v>
@@ -1182,19 +1656,43 @@
         <v>13.6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>2.9</v>
+      </c>
+      <c r="O19">
+        <v>0.3</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19">
+        <v>2.5</v>
+      </c>
+      <c r="T19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8000</v>
       </c>
@@ -1208,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
         <v>508.3</v>
@@ -1223,19 +1721,43 @@
         <v>13.2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>2.8</v>
+      </c>
+      <c r="O20">
+        <v>0.4</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>2.1</v>
+      </c>
+      <c r="R20">
+        <v>0.8</v>
+      </c>
+      <c r="S20">
+        <v>2.8</v>
+      </c>
+      <c r="T20">
+        <v>1.2</v>
+      </c>
+      <c r="U20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8000</v>
       </c>
@@ -1249,7 +1771,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1">
         <v>487.7</v>
@@ -1264,19 +1786,43 @@
         <v>12.7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>3.4</v>
+      </c>
+      <c r="O21">
+        <v>0.4</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2.1</v>
+      </c>
+      <c r="R21">
+        <v>0.9</v>
+      </c>
+      <c r="S21">
+        <v>2.7</v>
+      </c>
+      <c r="T21">
+        <v>1.5</v>
+      </c>
+      <c r="U21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8000</v>
       </c>
@@ -1290,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
         <v>466.6</v>
@@ -1305,19 +1851,43 @@
         <v>12.1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>0.3</v>
+      </c>
+      <c r="P22">
+        <v>0.8</v>
+      </c>
+      <c r="Q22">
+        <v>1.5</v>
+      </c>
+      <c r="R22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T22">
+        <v>1.6</v>
+      </c>
+      <c r="U22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>8000</v>
       </c>
@@ -1331,7 +1901,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1">
         <v>439.8</v>
@@ -1346,16 +1916,40 @@
         <v>11.4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>10.1</v>
+      </c>
+      <c r="O23">
+        <v>0.3</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1.2</v>
+      </c>
+      <c r="S23">
+        <v>1.7</v>
+      </c>
+      <c r="T23">
+        <v>1.9</v>
+      </c>
+      <c r="U23">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2010.xlsx
+++ b/wzrv/expdata/2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB70DD1-4149-A143-ACE6-595347554594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E90A9D-B0EF-0C48-A184-8624B5200340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,15 +90,9 @@
     <t>norm_c</t>
   </si>
   <si>
-    <t>syst0_c</t>
-  </si>
-  <si>
     <t>syst1_c</t>
   </si>
   <si>
-    <t>syst2_c</t>
-  </si>
-  <si>
     <t>syst3_c</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst0_u</t>
+  </si>
+  <si>
+    <t>syst2_u</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -498,28 +498,28 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">

--- a/wzrv/expdata/2010.xlsx
+++ b/wzrv/expdata/2010.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A612E002-F47B-694F-8C95-F654C37CEE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E873EF8-7755-AC49-ADFB-0B55212D271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30780" yWindow="8180" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,9 +69,6 @@
     <t>col</t>
   </si>
   <si>
-    <t>W+</t>
-  </si>
-  <si>
     <t>eta</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>CMS(mu)(2012)</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,28 +472,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>0.1331</v>
@@ -555,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>0.13699999999999998</v>
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <v>0.14269999999999999</v>
@@ -673,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>0.15179999999999999</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>0.16190000000000002</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>0.1769</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>0.19519999999999998</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>0.20749999999999999</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -994,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <v>0.22829999999999998</v>
@@ -1027,16 +1027,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>0.24609999999999999</v>
@@ -1086,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>0.2596</v>
@@ -1145,16 +1145,16 @@
         <v>1E-4</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">

--- a/wzrv/expdata/2010.xlsx
+++ b/wzrv/expdata/2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E873EF8-7755-AC49-ADFB-0B55212D271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B6DF92-FA22-1E4C-BD6E-CE0A2860323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="8180" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>cms</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -434,22 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" customWidth="1"/>
-    <col min="1004" max="1014" width="10.5" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" customWidth="1"/>
+    <col min="1005" max="1015" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,52 +466,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -521,30 +527,30 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.1331</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I2">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K2">
         <v>1.5E-3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L2">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="M2">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -552,22 +558,25 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -580,53 +589,56 @@
       <c r="D3" s="1">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.13699999999999998</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="I3">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K3">
         <v>1.5E-3</v>
       </c>
-      <c r="K3">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="L3">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -639,53 +651,56 @@
       <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.14269999999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I4">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K4">
         <v>1.5E-3</v>
       </c>
-      <c r="K4">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="L4">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N4">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -698,53 +713,56 @@
       <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.15179999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I5">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K5">
         <v>1.5E-3</v>
       </c>
-      <c r="K5">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="L5">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="M5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N5">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -757,53 +775,56 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.16190000000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I6">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K6">
         <v>1.5E-3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L6">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="M6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -816,53 +837,56 @@
       <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.1769</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I7">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K7">
         <v>1.5E-3</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L7">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="M7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N7">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="N7">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="O7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -875,53 +899,56 @@
       <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.19519999999999998</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1E-3</v>
       </c>
-      <c r="I8">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K8">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L8">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="M8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N8">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -934,53 +961,56 @@
       <c r="D9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.20749999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.8E-3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="L9">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="M9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N9">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
@@ -993,53 +1023,56 @@
       <c r="D10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.22829999999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8000</v>
       </c>
@@ -1052,53 +1085,56 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.24609999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="I11">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K11">
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="M11">
-        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N11">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="O11">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8000</v>
       </c>
@@ -1111,106 +1147,109 @@
       <c r="D12" s="1">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.2596</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="I12">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="J12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K12">
         <v>1E-3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1E-4</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M15" s="1"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M16" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M17" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M18" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M19" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M20" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M21" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M22" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M23" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M24" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="13:15" x14ac:dyDescent="0.2">
-      <c r="M25" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/wzrv/expdata/2010.xlsx
+++ b/wzrv/expdata/2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B6DF92-FA22-1E4C-BD6E-CE0A2860323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B36C00-4B8B-BE43-BA4D-CC46C3A2D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
